--- a/xstep_new/report/model.xlsx
+++ b/xstep_new/report/model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7850"/>
+    <workbookView windowWidth="19200" windowHeight="7130"/>
   </bookViews>
   <sheets>
     <sheet name="RAW_DATA" sheetId="1" r:id="rId1"/>
@@ -201,8 +201,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -237,6 +237,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -252,8 +281,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -261,7 +297,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,7 +305,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,51 +335,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -360,8 +351,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,187 +376,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,8 +645,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,8 +669,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,15 +731,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -709,36 +739,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -747,145 +747,145 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1271,13 +1271,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:EJ5"/>
+  <dimension ref="A1:EJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I3" sqref="$A3:$XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="10.6363636363636" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.3636363636364" style="2" customWidth="1"/>
@@ -1438,7 +1438,7 @@
       <c r="Y1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="6"/>
+      <c r="Z1" s="9"/>
       <c r="AA1" s="5" t="s">
         <v>5</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="AD1" s="6"/>
       <c r="AE1" s="6"/>
       <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
+      <c r="AG1" s="9"/>
       <c r="AH1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1984,15 +1984,105 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="15:20">
+    <row r="3" spans="3:140">
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
+      <c r="Y3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AD3"/>
+      <c r="AF3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
+      <c r="BC3"/>
+      <c r="BD3"/>
+      <c r="BE3"/>
+      <c r="BF3"/>
+      <c r="BG3"/>
+      <c r="BH3"/>
+      <c r="BI3"/>
+      <c r="BJ3"/>
+      <c r="BK3"/>
+      <c r="BL3"/>
+      <c r="BM3"/>
+      <c r="DB3"/>
+      <c r="DC3"/>
+      <c r="DD3"/>
+      <c r="DE3"/>
+      <c r="DF3"/>
+      <c r="DG3"/>
+      <c r="DH3"/>
+      <c r="DI3"/>
+      <c r="DJ3"/>
+      <c r="DK3"/>
+      <c r="DL3"/>
+      <c r="DM3"/>
+      <c r="DN3"/>
+      <c r="DO3"/>
+      <c r="DP3"/>
+      <c r="DQ3"/>
+      <c r="DR3"/>
+      <c r="DS3"/>
+      <c r="DT3"/>
+      <c r="DU3"/>
+      <c r="DV3"/>
+      <c r="DW3"/>
+      <c r="DX3"/>
+      <c r="DY3"/>
+      <c r="DZ3"/>
+      <c r="EA3"/>
+      <c r="EB3"/>
+      <c r="EC3"/>
+      <c r="ED3"/>
+      <c r="EE3"/>
+      <c r="EF3"/>
+      <c r="EG3"/>
+      <c r="EH3"/>
+      <c r="EI3"/>
+      <c r="EJ3"/>
     </row>
-    <row r="4" spans="13:20">
+    <row r="4" spans="3:32">
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
@@ -2001,8 +2091,22 @@
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
+      <c r="Y4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AD4"/>
+      <c r="AF4"/>
     </row>
-    <row r="5" spans="13:20">
+    <row r="5" spans="3:20">
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
@@ -2011,6 +2115,95 @@
       <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
+    </row>
+    <row r="6" spans="3:65">
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+      <c r="AY6"/>
+      <c r="AZ6"/>
+      <c r="BA6"/>
+      <c r="BB6"/>
+      <c r="BC6"/>
+      <c r="BD6"/>
+      <c r="BE6"/>
+      <c r="BF6"/>
+      <c r="BG6"/>
+      <c r="BH6"/>
+      <c r="BI6"/>
+      <c r="BJ6"/>
+      <c r="BK6"/>
+      <c r="BL6"/>
+      <c r="BM6"/>
+    </row>
+    <row r="7" spans="3:140">
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="DB7"/>
+      <c r="DC7"/>
+      <c r="DD7"/>
+      <c r="DE7"/>
+      <c r="DF7"/>
+      <c r="DG7"/>
+      <c r="DH7"/>
+      <c r="DI7"/>
+      <c r="DJ7"/>
+      <c r="DK7"/>
+      <c r="DL7"/>
+      <c r="DM7"/>
+      <c r="DN7"/>
+      <c r="DO7"/>
+      <c r="DP7"/>
+      <c r="DQ7"/>
+      <c r="DR7"/>
+      <c r="DS7"/>
+      <c r="DT7"/>
+      <c r="DU7"/>
+      <c r="DV7"/>
+      <c r="DW7"/>
+      <c r="DX7"/>
+      <c r="DY7"/>
+      <c r="DZ7"/>
+      <c r="EA7"/>
+      <c r="EB7"/>
+      <c r="EC7"/>
+      <c r="ED7"/>
+      <c r="EE7"/>
+      <c r="EF7"/>
+      <c r="EG7"/>
+      <c r="EH7"/>
+      <c r="EI7"/>
+      <c r="EJ7"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/xstep_new/report/model.xlsx
+++ b/xstep_new/report/model.xlsx
@@ -40,14 +40,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -69,14 +69,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -85,7 +77,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -100,14 +92,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -115,7 +100,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -146,8 +131,22 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -177,7 +176,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -188,6 +188,78 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -203,19 +275,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,19 +323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,43 +335,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,79 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,6 +456,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -470,17 +485,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,8 +512,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,15 +529,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,10 +560,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -572,19 +572,19 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -593,112 +593,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="12" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1138,10 +1138,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EJ7"/>
+  <dimension ref="A1:EJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="0"/>
@@ -3005,338 +3005,2573 @@
       </c>
     </row>
     <row r="6">
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>TM3_1A</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>100+100</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="0" t="n">
         <v>3550</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="J6" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-1.17</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="J6" s="0" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="L6" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="M6" t="n">
-        <v>21.28</v>
-      </c>
-      <c r="N6" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="O6" t="n">
-        <v>21.28</v>
-      </c>
-      <c r="P6" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>-34.86</v>
-      </c>
-      <c r="R6" t="n">
-        <v>-30.9</v>
-      </c>
-      <c r="S6" t="n">
-        <v>-55.06</v>
-      </c>
-      <c r="T6" t="n">
-        <v>-54.91</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>99</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>99</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>-5.68</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>-2.02</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>21.06</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>21.06</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="M6" s="0" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>-52.8</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>-51</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>-54.15</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>-53.73</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>97.14</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>97.45</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="AH6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="0" t="n">
         <v>3435</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="0" t="n">
         <v>3444.95</v>
       </c>
-      <c r="AK6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>3442.44</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>-31.93</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>-53.1</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="AP6" t="n">
+      <c r="AK6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AL6" s="0" t="n">
+        <v>3443.29</v>
+      </c>
+      <c r="AM6" s="0" t="n">
+        <v>-54.33</v>
+      </c>
+      <c r="AN6" s="0" t="n">
+        <v>-74.16</v>
+      </c>
+      <c r="AO6" s="0" t="n">
+        <v>-17.33</v>
+      </c>
+      <c r="AP6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="0" t="n">
+        <v>3444.95</v>
+      </c>
+      <c r="AR6" s="0" t="n">
+        <v>3449.95</v>
+      </c>
+      <c r="AS6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AT6" s="0" t="n">
+        <v>3444.99</v>
+      </c>
+      <c r="AU6" s="0" t="n">
+        <v>-55.59</v>
+      </c>
+      <c r="AV6" s="0" t="n">
+        <v>-75.43000000000001</v>
+      </c>
+      <c r="AW6" s="0" t="n">
+        <v>-18.7</v>
+      </c>
+      <c r="AX6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY6" s="0" t="n">
+        <v>3650.05</v>
+      </c>
+      <c r="AZ6" s="0" t="n">
+        <v>3655.05</v>
+      </c>
+      <c r="BA6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB6" s="0" t="n">
+        <v>3654.86</v>
+      </c>
+      <c r="BC6" s="0" t="n">
+        <v>-54.88</v>
+      </c>
+      <c r="BD6" s="0" t="n">
+        <v>-74.87</v>
+      </c>
+      <c r="BE6" s="0" t="n">
+        <v>-18.09</v>
+      </c>
+      <c r="BF6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG6" s="0" t="n">
+        <v>3655.05</v>
+      </c>
+      <c r="BH6" s="0" t="n">
+        <v>3664.97</v>
+      </c>
+      <c r="BI6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BJ6" s="0" t="n">
+        <v>3656.4</v>
+      </c>
+      <c r="BK6" s="0" t="n">
+        <v>-53.34</v>
+      </c>
+      <c r="BL6" s="0" t="n">
+        <v>-73.33</v>
+      </c>
+      <c r="BM6" s="0" t="n">
+        <v>-16.34</v>
+      </c>
+      <c r="BN6" s="0" t="n"/>
+      <c r="BO6" s="0" t="n"/>
+      <c r="BP6" s="0" t="n"/>
+      <c r="BQ6" s="0" t="n"/>
+      <c r="DB6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="DC6" s="0" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="DD6" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DE6" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="DF6" s="0" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="DG6" s="0" t="n">
+        <v>-69.42</v>
+      </c>
+      <c r="DH6" s="0" t="n">
+        <v>-33.42</v>
+      </c>
+      <c r="DI6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="AR6" t="n">
-        <v>3444.95</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>3449.95</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>3446.45</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>-31.38</v>
-      </c>
-      <c r="AW6" s="0" t="n">
-        <v>-52.55</v>
-      </c>
-      <c r="AX6" s="0" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="AY6" s="0" t="n">
+      <c r="DJ6" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DK6" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="DL6" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DM6" s="0" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="DN6" s="0" t="n">
+        <v>-64.37</v>
+      </c>
+      <c r="DO6" s="0" t="n">
+        <v>-28.37</v>
+      </c>
+      <c r="DP6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="DQ6" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="DR6" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="DS6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DT6" s="0" t="n">
+        <v>869.58</v>
+      </c>
+      <c r="DU6" s="0" t="n">
+        <v>-53.84</v>
+      </c>
+      <c r="DV6" s="0" t="n">
+        <v>-17.84</v>
+      </c>
+      <c r="DW6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX6" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="DY6" s="0" t="n">
+        <v>3440</v>
+      </c>
+      <c r="DZ6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AZ6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA6" s="0" t="n">
-        <v>3650.05</v>
-      </c>
-      <c r="BB6" s="0" t="n">
-        <v>3655.05</v>
-      </c>
-      <c r="BC6" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="BD6" s="0" t="n">
-        <v>3654.78</v>
-      </c>
-      <c r="BE6" s="0" t="n">
-        <v>-34.07</v>
-      </c>
-      <c r="BF6" s="0" t="n">
-        <v>-53.81</v>
-      </c>
-      <c r="BG6" s="0" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BH6" s="0" t="n">
+      <c r="EA6" s="0" t="n">
+        <v>2276.12</v>
+      </c>
+      <c r="EB6" s="0" t="n">
+        <v>-42.25</v>
+      </c>
+      <c r="EC6" s="0" t="n">
+        <v>-12.25</v>
+      </c>
+      <c r="ED6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="EE6" s="0" t="n">
+        <v>3710</v>
+      </c>
+      <c r="EF6" s="0" t="n">
+        <v>12750</v>
+      </c>
+      <c r="EG6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="BI6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ6" s="0" t="n">
-        <v>3655.05</v>
-      </c>
-      <c r="BK6" s="0" t="n">
-        <v>3664.97</v>
-      </c>
-      <c r="BL6" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="BM6" s="0" t="n">
-        <v>3664.55</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>-32.77</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>-52.5</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB6" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC6" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="DD6" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="DE6" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="DF6" t="n">
-        <v>0.138</v>
-      </c>
-      <c r="DG6" t="n">
-        <v>-69.28</v>
-      </c>
-      <c r="DH6" t="n">
-        <v>-33.28</v>
-      </c>
-      <c r="DI6" t="n">
-        <v>2</v>
-      </c>
-      <c r="DJ6" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="DK6" t="n">
-        <v>30</v>
-      </c>
-      <c r="DL6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="DM6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="DN6" t="n">
-        <v>-65.44</v>
-      </c>
-      <c r="DO6" t="n">
-        <v>-29.44</v>
-      </c>
-      <c r="DP6" t="n">
-        <v>3</v>
-      </c>
-      <c r="DQ6" t="n">
-        <v>30</v>
-      </c>
-      <c r="DR6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="DS6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="DT6" t="n">
-        <v>557.98</v>
-      </c>
-      <c r="DU6" t="n">
-        <v>-51.6</v>
-      </c>
-      <c r="DV6" t="n">
-        <v>-15.6</v>
-      </c>
-      <c r="DW6" t="n">
-        <v>4</v>
-      </c>
-      <c r="DX6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="DY6" t="n">
-        <v>3440</v>
-      </c>
-      <c r="DZ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA6" t="n">
-        <v>3439.01</v>
-      </c>
-      <c r="EB6" t="n">
-        <v>-22.14</v>
-      </c>
-      <c r="EC6" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="ED6" t="n">
-        <v>5</v>
-      </c>
-      <c r="EE6" t="n">
-        <v>3710</v>
-      </c>
-      <c r="EF6" t="n">
-        <v>12750</v>
-      </c>
-      <c r="EG6" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH6" t="n">
-        <v>7046.96</v>
-      </c>
-      <c r="EI6" t="n">
-        <v>-39.8</v>
-      </c>
-      <c r="EJ6" t="n">
-        <v>-9.800000000000001</v>
+      <c r="EH6" s="0" t="n">
+        <v>6593.86</v>
+      </c>
+      <c r="EI6" s="0" t="n">
+        <v>-40.11</v>
+      </c>
+      <c r="EJ6" s="0" t="n">
+        <v>-10.11</v>
       </c>
     </row>
     <row r="7">
-      <c r="DB7" s="0" t="n"/>
-      <c r="DC7" s="0" t="n"/>
-      <c r="DD7" s="0" t="n"/>
-      <c r="DE7" s="0" t="n"/>
-      <c r="DF7" s="0" t="n"/>
-      <c r="DG7" s="0" t="n"/>
-      <c r="DH7" s="0" t="n"/>
-      <c r="DI7" s="0" t="n"/>
-      <c r="DJ7" s="0" t="n"/>
-      <c r="DK7" s="0" t="n"/>
-      <c r="DL7" s="0" t="n"/>
-      <c r="DM7" s="0" t="n"/>
-      <c r="DN7" s="0" t="n"/>
-      <c r="DO7" s="0" t="n"/>
-      <c r="DP7" s="0" t="n"/>
-      <c r="DQ7" s="0" t="n"/>
-      <c r="DR7" s="0" t="n"/>
-      <c r="DS7" s="0" t="n"/>
-      <c r="DT7" s="0" t="n"/>
-      <c r="DU7" s="0" t="n"/>
-      <c r="DV7" s="0" t="n"/>
-      <c r="DW7" s="0" t="n"/>
-      <c r="DX7" s="0" t="n"/>
-      <c r="DY7" s="0" t="n"/>
-      <c r="DZ7" s="0" t="n"/>
-      <c r="EA7" s="0" t="n"/>
-      <c r="EB7" s="0" t="n"/>
-      <c r="EC7" s="0" t="n"/>
-      <c r="ED7" s="0" t="n"/>
-      <c r="EE7" s="0" t="n"/>
-      <c r="EF7" s="0" t="n"/>
-      <c r="EG7" s="0" t="n"/>
-      <c r="EH7" s="0" t="n"/>
-      <c r="EI7" s="0" t="n"/>
-      <c r="EJ7" s="0" t="n"/>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>TM3_1A</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>100+100</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>3575</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>-0.736</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>-50.26</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>-51.72</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>-54.76</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>-54.06</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>96.95999999999999</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <v>-4.42</v>
+      </c>
+      <c r="AE7" s="0" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="AG7" s="0" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="AH7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="0" t="n">
+        <v>3460</v>
+      </c>
+      <c r="AJ7" s="0" t="n">
+        <v>3469.95</v>
+      </c>
+      <c r="AK7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AL7" s="0" t="n">
+        <v>3467.29</v>
+      </c>
+      <c r="AM7" s="0" t="n">
+        <v>-52.69</v>
+      </c>
+      <c r="AN7" s="0" t="n">
+        <v>-73.06999999999999</v>
+      </c>
+      <c r="AO7" s="0" t="n">
+        <v>-15.69</v>
+      </c>
+      <c r="AP7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ7" s="0" t="n">
+        <v>3469.95</v>
+      </c>
+      <c r="AR7" s="0" t="n">
+        <v>3474.95</v>
+      </c>
+      <c r="AS7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AT7" s="0" t="n">
+        <v>3469.99</v>
+      </c>
+      <c r="AU7" s="0" t="n">
+        <v>-52.74</v>
+      </c>
+      <c r="AV7" s="0" t="n">
+        <v>-73.12</v>
+      </c>
+      <c r="AW7" s="0" t="n">
+        <v>-15.85</v>
+      </c>
+      <c r="AX7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY7" s="0" t="n">
+        <v>3675.05</v>
+      </c>
+      <c r="AZ7" s="0" t="n">
+        <v>3680.05</v>
+      </c>
+      <c r="BA7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB7" s="0" t="n">
+        <v>3680.01</v>
+      </c>
+      <c r="BC7" s="0" t="n">
+        <v>-54.91</v>
+      </c>
+      <c r="BD7" s="0" t="n">
+        <v>-75.23999999999999</v>
+      </c>
+      <c r="BE7" s="0" t="n">
+        <v>-17.91</v>
+      </c>
+      <c r="BF7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG7" s="0" t="n">
+        <v>3680.05</v>
+      </c>
+      <c r="BH7" s="0" t="n">
+        <v>3689.97</v>
+      </c>
+      <c r="BI7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BJ7" s="0" t="n">
+        <v>3681.01</v>
+      </c>
+      <c r="BK7" s="0" t="n">
+        <v>-52.7</v>
+      </c>
+      <c r="BL7" s="0" t="n">
+        <v>-73.02</v>
+      </c>
+      <c r="BM7" s="0" t="n">
+        <v>-15.7</v>
+      </c>
+      <c r="DB7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC7" s="0" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="DD7" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DE7" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="DF7" s="0" t="n">
+        <v>0.0248</v>
+      </c>
+      <c r="DG7" s="0" t="n">
+        <v>-72.88</v>
+      </c>
+      <c r="DH7" s="0" t="n">
+        <v>-36.88</v>
+      </c>
+      <c r="DI7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DJ7" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DK7" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="DL7" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DM7" s="0" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="DN7" s="0" t="n">
+        <v>-64.59999999999999</v>
+      </c>
+      <c r="DO7" s="0" t="n">
+        <v>-28.6</v>
+      </c>
+      <c r="DP7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="DQ7" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="DR7" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="DS7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DT7" s="0" t="n">
+        <v>992.38</v>
+      </c>
+      <c r="DU7" s="0" t="n">
+        <v>-52.65</v>
+      </c>
+      <c r="DV7" s="0" t="n">
+        <v>-16.65</v>
+      </c>
+      <c r="DW7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX7" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="DY7" s="0" t="n">
+        <v>3440</v>
+      </c>
+      <c r="DZ7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA7" s="0" t="n">
+        <v>2221.98</v>
+      </c>
+      <c r="EB7" s="0" t="n">
+        <v>-42.64</v>
+      </c>
+      <c r="EC7" s="0" t="n">
+        <v>-12.64</v>
+      </c>
+      <c r="ED7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="EE7" s="0" t="n">
+        <v>3710</v>
+      </c>
+      <c r="EF7" s="0" t="n">
+        <v>12750</v>
+      </c>
+      <c r="EG7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH7" s="0" t="n">
+        <v>6902.9</v>
+      </c>
+      <c r="EI7" s="0" t="n">
+        <v>-40.62</v>
+      </c>
+      <c r="EJ7" s="0" t="n">
+        <v>-10.62</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>TM3_1A</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>100+100</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>-0.718</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>-49.36</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>-52.92</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>-54.92</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>-53.94</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>97.06</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>97.34</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <v>-4.15</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="AG8" s="0" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="AH8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="0" t="n">
+        <v>3485</v>
+      </c>
+      <c r="AJ8" s="0" t="n">
+        <v>3494.95</v>
+      </c>
+      <c r="AK8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AL8" s="0" t="n">
+        <v>3487.51</v>
+      </c>
+      <c r="AM8" s="0" t="n">
+        <v>-52.77</v>
+      </c>
+      <c r="AN8" s="0" t="n">
+        <v>-73.23999999999999</v>
+      </c>
+      <c r="AO8" s="0" t="n">
+        <v>-15.77</v>
+      </c>
+      <c r="AP8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ8" s="0" t="n">
+        <v>3494.95</v>
+      </c>
+      <c r="AR8" s="0" t="n">
+        <v>3499.95</v>
+      </c>
+      <c r="AS8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AT8" s="0" t="n">
+        <v>3495.07</v>
+      </c>
+      <c r="AU8" s="0" t="n">
+        <v>-53.5</v>
+      </c>
+      <c r="AV8" s="0" t="n">
+        <v>-73.95999999999999</v>
+      </c>
+      <c r="AW8" s="0" t="n">
+        <v>-16.72</v>
+      </c>
+      <c r="AX8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY8" s="0" t="n">
+        <v>3700.05</v>
+      </c>
+      <c r="AZ8" s="0" t="n">
+        <v>3705.05</v>
+      </c>
+      <c r="BA8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB8" s="0" t="n">
+        <v>3704.78</v>
+      </c>
+      <c r="BC8" s="0" t="n">
+        <v>-54.14</v>
+      </c>
+      <c r="BD8" s="0" t="n">
+        <v>-74.31999999999999</v>
+      </c>
+      <c r="BE8" s="0" t="n">
+        <v>-17.47</v>
+      </c>
+      <c r="BF8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG8" s="0" t="n">
+        <v>3705.05</v>
+      </c>
+      <c r="BH8" s="0" t="n">
+        <v>3714.97</v>
+      </c>
+      <c r="BI8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BJ8" s="0" t="n">
+        <v>3705.63</v>
+      </c>
+      <c r="BK8" s="0" t="n">
+        <v>-53.68</v>
+      </c>
+      <c r="BL8" s="0" t="n">
+        <v>-73.84999999999999</v>
+      </c>
+      <c r="BM8" s="0" t="n">
+        <v>-16.68</v>
+      </c>
+      <c r="DB8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC8" s="0" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="DD8" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DE8" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="DF8" s="0" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="DG8" s="0" t="n">
+        <v>-72.69</v>
+      </c>
+      <c r="DH8" s="0" t="n">
+        <v>-36.69</v>
+      </c>
+      <c r="DI8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="DJ8" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DK8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="DL8" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DM8" s="0" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="DN8" s="0" t="n">
+        <v>-63.77</v>
+      </c>
+      <c r="DO8" s="0" t="n">
+        <v>-27.77</v>
+      </c>
+      <c r="DP8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="DQ8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="DR8" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="DS8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DT8" s="0" t="n">
+        <v>830.09</v>
+      </c>
+      <c r="DU8" s="0" t="n">
+        <v>-52.97</v>
+      </c>
+      <c r="DV8" s="0" t="n">
+        <v>-16.97</v>
+      </c>
+      <c r="DW8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX8" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="DY8" s="0" t="n">
+        <v>3440</v>
+      </c>
+      <c r="DZ8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA8" s="0" t="n">
+        <v>2290.15</v>
+      </c>
+      <c r="EB8" s="0" t="n">
+        <v>-42.48</v>
+      </c>
+      <c r="EC8" s="0" t="n">
+        <v>-12.48</v>
+      </c>
+      <c r="ED8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="EE8" s="0" t="n">
+        <v>3710</v>
+      </c>
+      <c r="EF8" s="0" t="n">
+        <v>12750</v>
+      </c>
+      <c r="EG8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH8" s="0" t="n">
+        <v>7186.51</v>
+      </c>
+      <c r="EI8" s="0" t="n">
+        <v>-40.55</v>
+      </c>
+      <c r="EJ8" s="0" t="n">
+        <v>-10.55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TM3_1A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>100+100</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3550</v>
+      </c>
+      <c r="H9" t="n">
+        <v>24</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-1.91</v>
+      </c>
+      <c r="L9" t="n">
+        <v>23</v>
+      </c>
+      <c r="M9" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="O9" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="P9" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-52.44</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-50.51</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-54.18</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-53.75</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>96.93000000000001</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>97.34</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-3.42</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.178</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>3435</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>3444.95</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>3443.75</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-53.8</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-73.77</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-16.8</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>3444.95</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>3449.95</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3445.14</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-54.29</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>-74.26000000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>-17.61</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>3650.05</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>3655.05</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>3654.93</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>-54.44</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>-74.36</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>-17.55</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>3655.05</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>3664.97</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>3663.85</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>-53.2</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>-73.12</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>-16.2</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>-68</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>-32</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>2</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>30</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>-64.67</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>-28.67</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>3</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>30</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>539.61</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>-52.55</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>-16.55</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>3440</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>2713.61</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>-41.84</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>-11.84</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>5</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>3710</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>12750</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>6726.63</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>-39.82</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>-9.82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TM3_1A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>100+100</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3575</v>
+      </c>
+      <c r="H10" t="n">
+        <v>24</v>
+      </c>
+      <c r="J10" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="L10" t="n">
+        <v>23</v>
+      </c>
+      <c r="M10" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="N10" t="n">
+        <v>20.23</v>
+      </c>
+      <c r="O10" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="P10" t="n">
+        <v>20.23</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-49.97</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-51.21</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-54.79</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-54.11</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-4.16</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-0.8149999999999999</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>3460</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>3469.95</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>3465.21</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-52.51</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-72.98999999999999</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-15.51</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>3469.95</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>3474.95</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3470.07</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>-53.39</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>-73.86</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>-16.6</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>3675.05</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>3680.05</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>3680.01</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>-53.71</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>-73.97</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>-16.71</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>3680.05</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>3689.97</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>3681.7</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>-53.4</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>-73.65000000000001</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>-16.4</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>0.0248</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>-70.92</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>-34.92</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>2</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>30</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>-64.39</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>-28.39</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>3</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>30</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>624.58</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>-54.21</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>-18.21</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>3440</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>2268.19</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>-41.07</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>-11.07</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>5</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>3710</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>12750</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>6852.05</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>-40.35</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>-10.35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TM3_1A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>100+100</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3600</v>
+      </c>
+      <c r="H11" t="n">
+        <v>24</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>23</v>
+      </c>
+      <c r="M11" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="N11" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="O11" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="P11" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-47.86</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-52.72</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-54.91</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-53.89</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>96.94</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-3.18</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>3485</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>3494.95</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>3493.21</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-51.83</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-72.20999999999999</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-14.83</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>3494.95</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>3499.95</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3495.99</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-52.17</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>-72.55</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>-16.67</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>3700.05</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>3705.05</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>3705.01</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>-54.42</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>-74.42</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>-17.42</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>3705.05</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>3714.97</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>3706.55</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>-53.69</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>-73.69</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>-16.69</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>-69.34</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>-33.34</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>2</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>30</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>-65.2</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>-29.2</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>3</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>30</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>966.28</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>-53.35</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>-17.35</v>
+      </c>
+      <c r="DW11" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="DY11" t="n">
+        <v>3440</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>2348.85</v>
+      </c>
+      <c r="EB11" t="n">
+        <v>-42.22</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>-12.22</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>5</v>
+      </c>
+      <c r="EE11" t="n">
+        <v>3710</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>12750</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>6939.62</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>-40.04</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>-10.04</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TM3_1A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>100+100</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3550</v>
+      </c>
+      <c r="H12" t="n">
+        <v>24</v>
+      </c>
+      <c r="J12" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="L12" t="n">
+        <v>24</v>
+      </c>
+      <c r="M12" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="N12" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="O12" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="P12" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-52.83</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-50.64</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-54.81</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-54.38</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>97.33</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-1.91</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>3435</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>3444.95</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>3443.91</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-54.59</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-75.19</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-17.59</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>3444.95</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>3449.95</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3445.07</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-54.34</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>-74.94</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>-17.55</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>3650.05</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>3655.05</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>3654.7</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>-53.17</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>-73.75</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>-16.6</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>3655.05</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>3664.97</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>3660.32</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>-52.97</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>-73.55</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>-15.97</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>-69.06999999999999</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>-33.07</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>2</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>30</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>-64.31999999999999</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>-28.32</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>3</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>30</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>573.59</v>
+      </c>
+      <c r="DU12" t="n">
+        <v>-53.12</v>
+      </c>
+      <c r="DV12" t="n">
+        <v>-17.12</v>
+      </c>
+      <c r="DW12" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="DY12" t="n">
+        <v>3440</v>
+      </c>
+      <c r="DZ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>2392.01</v>
+      </c>
+      <c r="EB12" t="n">
+        <v>-42.24</v>
+      </c>
+      <c r="EC12" t="n">
+        <v>-12.24</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>5</v>
+      </c>
+      <c r="EE12" t="n">
+        <v>3710</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>12750</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>6830.02</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>-39.92</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>-9.92</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>TM3_1A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100+100</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3575</v>
+      </c>
+      <c r="H13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>11</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="L13" t="n">
+        <v>24</v>
+      </c>
+      <c r="M13" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="O13" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="P13" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-50.18</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-51.85</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-55.23</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-54.54</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>96.95999999999999</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>97.26000000000001</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-3.67</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.395</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>3460</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>3469.95</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>3465.98</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-52.1</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-73.05</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-15.1</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>3469.95</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>3474.95</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3470.14</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-52.79</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>-73.73999999999999</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>-16.11</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>3675.05</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>3680.05</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>3680.01</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>-53.63</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>-74.45</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>-16.63</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>3680.05</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>3689.97</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>3683.32</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>-52.26</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>-73.08</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>-15.26</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>0.0698</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>-70.33</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>-34.33</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>2</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DK13" t="n">
+        <v>30</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>-64.7</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>-28.7</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>3</v>
+      </c>
+      <c r="DQ13" t="n">
+        <v>30</v>
+      </c>
+      <c r="DR13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="DS13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DT13" t="n">
+        <v>705.24</v>
+      </c>
+      <c r="DU13" t="n">
+        <v>-53.9</v>
+      </c>
+      <c r="DV13" t="n">
+        <v>-17.9</v>
+      </c>
+      <c r="DW13" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="DY13" t="n">
+        <v>3440</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>2976.96</v>
+      </c>
+      <c r="EB13" t="n">
+        <v>-42.42</v>
+      </c>
+      <c r="EC13" t="n">
+        <v>-12.42</v>
+      </c>
+      <c r="ED13" t="n">
+        <v>5</v>
+      </c>
+      <c r="EE13" t="n">
+        <v>3710</v>
+      </c>
+      <c r="EF13" t="n">
+        <v>12750</v>
+      </c>
+      <c r="EG13" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH13" t="n">
+        <v>6470.7</v>
+      </c>
+      <c r="EI13" t="n">
+        <v>-40.4</v>
+      </c>
+      <c r="EJ13" t="n">
+        <v>-10.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>TM3_1A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>100+100</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3600</v>
+      </c>
+      <c r="H14" t="n">
+        <v>24</v>
+      </c>
+      <c r="J14" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.901</v>
+      </c>
+      <c r="L14" t="n">
+        <v>24</v>
+      </c>
+      <c r="M14" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="O14" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="P14" t="n">
+        <v>20.58</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-48.2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-53.21</v>
+      </c>
+      <c r="S14" t="n">
+        <v>-55.37</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-54.44</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>96.95</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>97.23</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>-3.89</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>-0.616</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>20.85</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>3485</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>3494.95</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>3491.29</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>-51.3</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>-72.23999999999999</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>-14.3</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>3494.95</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>3499.95</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3496.45</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>-50.29</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>-71.23999999999999</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>-15.45</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>3700.05</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>3705.05</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>3704.86</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>-53.96</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>-74.59</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>-17.17</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>3705.05</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>3714.97</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>3705.63</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>-52.68</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>-73.31</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>-15.68</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>-69.98999999999999</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>-33.99</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>2</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DK14" t="n">
+        <v>30</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>-63.49</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>-27.49</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>3</v>
+      </c>
+      <c r="DQ14" t="n">
+        <v>30</v>
+      </c>
+      <c r="DR14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="DS14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="DT14" t="n">
+        <v>481.63</v>
+      </c>
+      <c r="DU14" t="n">
+        <v>-53.62</v>
+      </c>
+      <c r="DV14" t="n">
+        <v>-17.62</v>
+      </c>
+      <c r="DW14" t="n">
+        <v>4</v>
+      </c>
+      <c r="DX14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="DY14" t="n">
+        <v>3440</v>
+      </c>
+      <c r="DZ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA14" t="n">
+        <v>2919.93</v>
+      </c>
+      <c r="EB14" t="n">
+        <v>-42.65</v>
+      </c>
+      <c r="EC14" t="n">
+        <v>-12.65</v>
+      </c>
+      <c r="ED14" t="n">
+        <v>5</v>
+      </c>
+      <c r="EE14" t="n">
+        <v>3710</v>
+      </c>
+      <c r="EF14" t="n">
+        <v>12750</v>
+      </c>
+      <c r="EG14" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH14" t="n">
+        <v>6304.04</v>
+      </c>
+      <c r="EI14" t="n">
+        <v>-40.15</v>
+      </c>
+      <c r="EJ14" t="n">
+        <v>-10.15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
